--- a/medicine/Mort/La_Vie_avec_mon_père/La_Vie_avec_mon_père.xlsx
+++ b/medicine/Mort/La_Vie_avec_mon_père/La_Vie_avec_mon_père.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>La_Vie_avec_mon_p%C3%A8re</t>
+          <t>La_Vie_avec_mon_père</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Vie avec mon père est un film québécois réalisé par Sébastien Rose, sorti en 2005 et mettant en vedette Raymond Bouchard, David La Haye, Paul Ahmarani et Hélène Florent.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>La_Vie_avec_mon_p%C3%A8re</t>
+          <t>La_Vie_avec_mon_père</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">François, un écrivain, atteint d'une maladie en phase terminale, aide ses deux fils, Patrick et Paul, depuis longtemps en conflit, à se réconcilier avant sa mort.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>La_Vie_avec_mon_p%C3%A8re</t>
+          <t>La_Vie_avec_mon_père</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original : La Vie avec mon père
@@ -559,17 +575,17 @@
 Production : Roger Frappier et Luc Vandal
 Société de production : Max Films
 Société de distribution : Christal Films, Les Films Séville
-Budget : 4,3 millions $ CA[1]
+Budget : 4,3 millions $ CA
 Pays de production :  Canada
 Langue originale : français
 Format : couleur
 Genre : comédie dramatique
 Durée : 110 minutes
 Dates de sortie :
-Canada : 22 mars 2005 (première à la Place des Arts à Montréal)[2]
-Canada : 25 mars 2005 (sortie en salle au Québec)[3]
+Canada : 22 mars 2005 (première à la Place des Arts à Montréal)
+Canada : 25 mars 2005 (sortie en salle au Québec)
 Tchéquie : 8 juillet 2005 (Festival international du film de Karlovy Vary)
-Canada : 27 septembre 2005 (DVD)[1]
+Canada : 27 septembre 2005 (DVD)
 France : 23 novembre 2005 (Semaine du cinéma du Québec à Paris)</t>
         </is>
       </c>
@@ -580,7 +596,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>La_Vie_avec_mon_p%C3%A8re</t>
+          <t>La_Vie_avec_mon_père</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -598,7 +614,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Raymond Bouchard : François Agira
@@ -630,7 +648,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>La_Vie_avec_mon_p%C3%A8re</t>
+          <t>La_Vie_avec_mon_père</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -650,10 +668,49 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Récompenses
-2005 : Festival international du film de Karlovy Vary, Prix du public[4]
-Nominations
-2005 : Festival international du film de Karlovy Vary, Globe de cristal</t>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2005 : Festival international du film de Karlovy Vary, Prix du public</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>La_Vie_avec_mon_père</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Vie_avec_mon_p%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2005 : Festival international du film de Karlovy Vary, Globe de cristal</t>
         </is>
       </c>
     </row>
